--- a/data/NguyenChangs.xlsx
+++ b/data/NguyenChangs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DriveUniMiB\A_Labs\CollisionalRadiative\Argon_v2_higher\Model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DriveUniMiB\A_Labs\CollisionalRadiative\Argon\Model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF50603-C66E-4C48-936C-48E20DFFA668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49701D1E-D177-4489-BFA8-0F08B107C9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1710" windowWidth="21210" windowHeight="12975" xr2:uid="{D8BBCD73-ADCD-4D4F-ABB0-741E39394ACF}"/>
+    <workbookView xWindow="1590" yWindow="1050" windowWidth="21210" windowHeight="12975" xr2:uid="{D8BBCD73-ADCD-4D4F-ABB0-741E39394ACF}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="23">
   <si>
     <t>Two bodies decay coefficients</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>2p1</t>
-  </si>
-  <si>
-    <t>Nguyen/Chang</t>
   </si>
   <si>
     <t>3d+2s</t>
@@ -157,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +173,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -189,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -201,6 +204,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -370,7 +375,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F31073A2-22D1-4DF8-A144-C19BAB48344F}" name="Tabella1" displayName="Tabella1" ref="A5:D44" totalsRowShown="0">
   <autoFilter ref="A5:D44" xr:uid="{F31073A2-22D1-4DF8-A144-C19BAB48344F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:D44">
-    <sortCondition ref="B5:B44"/>
+    <sortCondition ref="A5:A44"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E6CEBB59-996C-428C-A84D-1918D2E444CF}" name="From"/>
@@ -647,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF10C105-8DCF-43FD-B20C-C289C1C27246}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -703,55 +708,55 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>0.5</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -759,105 +764,111 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>27.5</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="5">
-        <v>26</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>17</v>
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C14">
-        <v>500</v>
+        <v>1.4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>500</v>
+        <v>1.9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>22</v>
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -868,10 +879,10 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>23</v>
+        <v>0.7</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -879,13 +890,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>27.5</v>
+        <v>4.8</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -893,13 +904,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -907,13 +918,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C22">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -924,10 +935,10 @@
         <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C23">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -935,13 +946,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>44</v>
+        <v>1.7</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -949,13 +960,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25">
-        <v>4.8</v>
+        <v>11.3</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -966,10 +977,10 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>11.3</v>
+        <v>9.5</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
@@ -977,13 +988,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
       <c r="C27">
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
@@ -991,13 +1002,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
       <c r="C28">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -1005,13 +1016,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -1019,27 +1030,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>3.2</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
         <v>12</v>
       </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
       <c r="C31">
-        <v>4.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -1047,13 +1058,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
       <c r="C32">
-        <v>0.8</v>
+        <v>14.3</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
@@ -1061,13 +1072,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33">
-        <v>1.9</v>
+        <v>23.3</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
@@ -1075,27 +1086,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C34">
-        <v>1.4</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C35">
-        <v>9.5</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -1103,13 +1114,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s">
         <v>12</v>
       </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
       <c r="C36">
-        <v>6</v>
+        <v>0.3</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
@@ -1117,13 +1128,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
       <c r="C37">
-        <v>14.3</v>
+        <v>0.8</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -1131,55 +1142,55 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s">
         <v>15</v>
       </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
       <c r="C38">
-        <v>6.8</v>
+        <v>18.2</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" s="5" customFormat="1">
-      <c r="A39" t="s">
-        <v>9</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="39" spans="1:4" s="7" customFormat="1">
+      <c r="A39" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C39">
-        <v>0.8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="5" customFormat="1">
-      <c r="A40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="5">
+        <v>47</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="7" customFormat="1">
+      <c r="A40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C40">
-        <v>3.3</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="B40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="5">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
@@ -1187,30 +1198,24 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C42">
-        <v>23.3</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>18.2</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1218,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C44">
         <v>500</v>
